--- a/words.xlsx
+++ b/words.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89">
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93">
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102">
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112">
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120">
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
@@ -2470,7 +2470,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138">
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143">
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155">
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156">
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160">
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162">
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164">
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166">
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167">
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169">
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170">
@@ -2995,7 +2995,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" ht="25.5" customHeight="1">
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175">
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177">
@@ -3100,7 +3100,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180">
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181">
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182">
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184">
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186">
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188">
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189">
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190">
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192">
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" ht="25.5" customHeight="1">
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -3370,7 +3370,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -3385,7 +3385,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200">
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201">
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202">
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203" ht="25.5" customHeight="1">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205">
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207">
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208">
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210">
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211">
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214">
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -3655,7 +3655,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218">
@@ -3715,7 +3715,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221">
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223">
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225">
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229">
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231">
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233">
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234">
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237">
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240">
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241" ht="25.5" customHeight="1">
@@ -4045,7 +4045,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243">
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250">
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253">
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" ht="25.5" customHeight="1">
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257">
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264">
@@ -4375,7 +4375,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265">
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267">
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268">
@@ -4465,7 +4465,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" ht="25.5" customHeight="1">
@@ -4480,7 +4480,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272">
@@ -4495,7 +4495,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273">
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276">
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277">
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279">
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280">
@@ -4615,7 +4615,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281">
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" ht="25.5" customHeight="1">
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283">
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284">
@@ -4675,7 +4675,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285">
@@ -4705,7 +4705,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287">
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288">
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289">
@@ -4765,7 +4765,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292">
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -4885,7 +4885,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299">
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301">
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303">
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304">
@@ -4975,7 +4975,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305">
@@ -4990,7 +4990,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306">
@@ -5065,7 +5065,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311">
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="313">
@@ -5110,7 +5110,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314">
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317">
@@ -5170,7 +5170,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318">
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321">
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324">
@@ -5305,7 +5305,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327">
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -5395,7 +5395,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="333">
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334">
@@ -5425,7 +5425,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -5455,7 +5455,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -5470,7 +5470,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="338">
@@ -5485,7 +5485,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="339" ht="25.5" customHeight="1">
@@ -5515,7 +5515,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="341">
@@ -5530,7 +5530,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="342">
@@ -5545,7 +5545,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="343">
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="346">
@@ -5605,7 +5605,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347">
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349">
@@ -5650,7 +5650,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="350">
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="351" ht="25.5" customHeight="1">
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352">
@@ -5725,7 +5725,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="355" ht="25.5" customHeight="1">
@@ -5755,7 +5755,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357">
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358">
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359">
@@ -5800,7 +5800,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="360">
@@ -5815,7 +5815,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" ht="25.5" customHeight="1">
@@ -5830,7 +5830,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="362">
@@ -5845,7 +5845,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="363">
@@ -5875,7 +5875,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="365">
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="371">
@@ -5980,7 +5980,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="372">
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="373">
@@ -6010,7 +6010,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="374">
@@ -6025,7 +6025,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="375">
@@ -6055,7 +6055,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="377">
@@ -6085,7 +6085,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="379">
@@ -6100,7 +6100,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="380" ht="25.5" customHeight="1">
@@ -6115,7 +6115,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="381">
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="383">
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="386">
@@ -6205,7 +6205,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="387">
@@ -6250,7 +6250,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="390">
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="391" ht="25.5" customHeight="1">
@@ -6280,7 +6280,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="392">
@@ -6295,7 +6295,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="393">
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="394">
@@ -6325,7 +6325,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="395">
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="397">
@@ -6370,7 +6370,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="398">
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="400">
@@ -6445,7 +6445,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="403">
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404">
@@ -6550,7 +6550,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="410" ht="25.5" customHeight="1">
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412">
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="413">
@@ -6655,7 +6655,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="417">
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="418">
@@ -6730,7 +6730,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="422">
@@ -6745,7 +6745,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" ht="25.5" customHeight="1">
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="424">
@@ -6775,7 +6775,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425">
@@ -6790,7 +6790,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="426">
@@ -6820,7 +6820,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="428">
@@ -6865,7 +6865,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="431">
@@ -6895,7 +6895,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -6910,7 +6910,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="435">
@@ -6955,7 +6955,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="442">
@@ -7045,7 +7045,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="443">
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="445">
@@ -7090,7 +7090,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="446">
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="448" ht="25.5" customHeight="1">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="450">
@@ -7180,7 +7180,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="452">
@@ -7225,7 +7225,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="455" ht="25.5" customHeight="1">
@@ -7240,7 +7240,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="456">
@@ -7255,7 +7255,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="457">
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459" ht="25.5" customHeight="1">
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="460" ht="25.5" customHeight="1">
@@ -7315,7 +7315,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="461">
@@ -7330,7 +7330,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="462">
@@ -7375,7 +7375,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="465">
@@ -7390,7 +7390,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="466">
@@ -7405,7 +7405,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="467">
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="468">
@@ -7450,7 +7450,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="470">
@@ -7525,7 +7525,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="475">
@@ -7540,7 +7540,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="476">
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -7585,7 +7585,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="479">
@@ -7600,7 +7600,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="480">
@@ -7615,7 +7615,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="481">
@@ -7645,7 +7645,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="483">
@@ -7675,7 +7675,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="485">
@@ -7705,7 +7705,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="487">
@@ -7735,7 +7735,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="489">
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="490">
@@ -7765,7 +7765,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="491">
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="493">
@@ -7855,7 +7855,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="497" ht="25.5" customHeight="1">
@@ -7870,7 +7870,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="498" ht="25.5" customHeight="1">
@@ -7885,7 +7885,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="499">
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="502">
@@ -7975,7 +7975,7 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="505">
@@ -7990,7 +7990,7 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="506">
@@ -8005,7 +8005,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="507">
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="508">
@@ -8035,7 +8035,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="509">
@@ -8050,7 +8050,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="510">
@@ -8065,7 +8065,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="511">
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="512">
@@ -8095,7 +8095,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="514">
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="515">
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="516">
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517">
@@ -8185,7 +8185,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="519">
@@ -8215,7 +8215,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521">
@@ -8245,7 +8245,7 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="523">
@@ -8335,7 +8335,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="529">
@@ -8395,7 +8395,7 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="533">
@@ -8425,7 +8425,7 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="535">
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536">
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="538">
@@ -8485,7 +8485,7 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="539">
@@ -8500,7 +8500,7 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="540">
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="541">
@@ -8545,7 +8545,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="543">
@@ -8560,7 +8560,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544">
@@ -8575,7 +8575,7 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="545">
@@ -8590,7 +8590,7 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="546">
@@ -8635,7 +8635,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="549">
@@ -8650,7 +8650,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="550">
@@ -8695,7 +8695,7 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="553">
@@ -8725,7 +8725,7 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="555">
@@ -8755,7 +8755,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="557">
@@ -8770,7 +8770,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="558" ht="25.5" customHeight="1">
@@ -8785,7 +8785,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="559">
@@ -8800,7 +8800,7 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="560">
@@ -8815,7 +8815,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="561">
@@ -8830,7 +8830,7 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="562">
@@ -8860,7 +8860,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="564">
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="565">
@@ -8920,7 +8920,7 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="568">
@@ -8935,7 +8935,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="569">
@@ -8965,7 +8965,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="571">
@@ -8980,7 +8980,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="572">
@@ -8995,7 +8995,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="573">
@@ -9040,7 +9040,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="576" ht="25.5" customHeight="1">
@@ -9055,7 +9055,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="577">
@@ -9070,7 +9070,7 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="578">
@@ -9085,7 +9085,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="579">
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="580">
@@ -9205,7 +9205,7 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="587">
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="589" ht="25.5" customHeight="1">
@@ -9250,7 +9250,7 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="590">
@@ -9325,7 +9325,7 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="595" ht="25.5" customHeight="1">
@@ -9370,7 +9370,7 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="598">
@@ -9385,7 +9385,7 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -9445,7 +9445,7 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="603">
@@ -9475,7 +9475,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="605" ht="25.5" customHeight="1">
@@ -9490,7 +9490,7 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="606">
@@ -9505,7 +9505,7 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="607">
@@ -9520,7 +9520,7 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="608">
@@ -9535,7 +9535,7 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="609">
@@ -9550,7 +9550,7 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="610">
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="611" ht="25.5" customHeight="1">
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -9610,7 +9610,7 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="614">
@@ -9640,7 +9640,7 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="616">
@@ -9670,7 +9670,7 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="618">
@@ -9685,7 +9685,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="619" ht="25.5" customHeight="1">
@@ -9715,7 +9715,7 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="621">
@@ -9775,7 +9775,7 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="625">
@@ -9790,7 +9790,7 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="626">
@@ -9820,7 +9820,7 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="628" ht="25.5" customHeight="1">
@@ -9850,7 +9850,7 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="630">
@@ -9910,7 +9910,7 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="634" ht="25.5" customHeight="1">
@@ -9925,7 +9925,7 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="635">
@@ -9970,7 +9970,7 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="638">
@@ -9985,7 +9985,7 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="639">
@@ -10000,7 +10000,7 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="640">
@@ -10045,7 +10045,7 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="643">
@@ -10060,7 +10060,7 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="644" ht="25.5" customHeight="1">
@@ -10075,7 +10075,7 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="645">
@@ -10090,7 +10090,7 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="646">
@@ -10120,7 +10120,7 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="648">
@@ -10150,7 +10150,7 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="650">
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="652">
@@ -10195,7 +10195,7 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="653">
@@ -10270,7 +10270,7 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="658">
@@ -10285,7 +10285,7 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="659">
@@ -10300,7 +10300,7 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="660">
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="661">
@@ -10330,7 +10330,7 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="662">
@@ -10345,7 +10345,7 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="663">
@@ -10390,7 +10390,7 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="666">
@@ -10405,7 +10405,7 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="667">
@@ -10420,7 +10420,7 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="668">
@@ -10450,7 +10450,7 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="670">
@@ -10480,7 +10480,7 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="672">
@@ -10510,7 +10510,7 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="674">
@@ -10615,7 +10615,7 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="681">
@@ -10630,7 +10630,7 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="682">
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="685">
@@ -10690,7 +10690,7 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="686">
@@ -10705,7 +10705,7 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="687" ht="25.5" customHeight="1">
@@ -10720,7 +10720,7 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="688">
@@ -10735,7 +10735,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="689">
@@ -10765,7 +10765,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="691">
@@ -10780,7 +10780,7 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="692">
@@ -10795,7 +10795,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="693">
@@ -10825,7 +10825,7 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="695">
@@ -10840,7 +10840,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="696">
@@ -10855,7 +10855,7 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="697">
@@ -10870,7 +10870,7 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="698">
@@ -10885,7 +10885,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="699">
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="700">
@@ -11020,7 +11020,7 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="708">
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="709">
@@ -11050,7 +11050,7 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="710">
@@ -11110,7 +11110,7 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="714">
@@ -11125,7 +11125,7 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="715">
@@ -11155,7 +11155,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="717">
@@ -11200,7 +11200,7 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="720">
@@ -11215,7 +11215,7 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="721">
@@ -11230,7 +11230,7 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="722">
@@ -11245,7 +11245,7 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="723">
@@ -11260,7 +11260,7 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="724">
@@ -11290,7 +11290,7 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="726">
@@ -11305,7 +11305,7 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="727">
@@ -11320,7 +11320,7 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="728" ht="25.5" customHeight="1">
@@ -11365,7 +11365,7 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="731">
@@ -11380,7 +11380,7 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="732" ht="25.5" customHeight="1">
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="733" ht="25.5" customHeight="1">
@@ -11425,7 +11425,7 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="735">
@@ -11440,7 +11440,7 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="736" ht="25.5" customHeight="1">
@@ -11470,7 +11470,7 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="738">
@@ -11485,7 +11485,7 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="739">
@@ -11500,7 +11500,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="740">
@@ -11530,7 +11530,7 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="742">
@@ -11545,7 +11545,7 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="743">
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="744">
@@ -11575,7 +11575,7 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="745">
@@ -11590,7 +11590,7 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="746">
@@ -11605,7 +11605,7 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="747">
@@ -11620,7 +11620,7 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="748">
@@ -11635,7 +11635,7 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="749">
@@ -11650,7 +11650,7 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="750">
@@ -11665,7 +11665,7 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="751">
@@ -11680,7 +11680,7 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="752">
@@ -11695,7 +11695,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="753">
@@ -11710,7 +11710,7 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="754" ht="25.5" customHeight="1">
@@ -11725,7 +11725,7 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="755">
@@ -11740,7 +11740,7 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="756">
@@ -11785,7 +11785,7 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="759">
@@ -11800,7 +11800,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="760">
@@ -11860,7 +11860,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="764">
@@ -11875,7 +11875,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="765" ht="25.5" customHeight="1">
@@ -11920,7 +11920,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="768">
@@ -11935,7 +11935,7 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="769">
@@ -12010,7 +12010,7 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774">
@@ -12040,7 +12040,7 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="776">
@@ -12070,7 +12070,7 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="778">
@@ -12085,7 +12085,7 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="779">
@@ -12160,7 +12160,7 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="784">
@@ -12175,7 +12175,7 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="785">
@@ -12190,7 +12190,7 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="786">
@@ -12205,7 +12205,7 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="787">
@@ -12220,7 +12220,7 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="788">
@@ -12250,7 +12250,7 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="790" ht="25.5" customHeight="1">
@@ -12280,7 +12280,7 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="792">
@@ -12295,7 +12295,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="793">
@@ -12310,7 +12310,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="794">
@@ -12325,7 +12325,7 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="795" ht="25.5" customHeight="1">
@@ -12340,7 +12340,7 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="796">
@@ -12355,7 +12355,7 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="797">
@@ -12370,7 +12370,7 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="798">
@@ -12385,7 +12385,7 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="799">
@@ -12400,7 +12400,7 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="800">
@@ -12415,7 +12415,7 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="801">
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="805">
@@ -12505,7 +12505,7 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="807">
@@ -12565,7 +12565,7 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="811">
@@ -12580,7 +12580,7 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="812">
@@ -12595,7 +12595,7 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="813">
@@ -12625,7 +12625,7 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="815">
@@ -12640,7 +12640,7 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="816">
@@ -12655,7 +12655,7 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="817">
@@ -12670,7 +12670,7 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="818">
@@ -12685,7 +12685,7 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="819">
@@ -12700,7 +12700,7 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="820" ht="25.5" customHeight="1">
@@ -12715,7 +12715,7 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="821">
@@ -12730,7 +12730,7 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="822">
@@ -12775,7 +12775,7 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="825">
@@ -12790,7 +12790,7 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="826">
@@ -12805,7 +12805,7 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="827">
@@ -12820,7 +12820,7 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="828">
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="829" ht="25.5" customHeight="1">
@@ -12865,7 +12865,7 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="831">
@@ -12895,7 +12895,7 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="833">
@@ -12910,7 +12910,7 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="834">
@@ -12925,7 +12925,7 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="835">
@@ -12940,7 +12940,7 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="836">
@@ -12970,7 +12970,7 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="838">
@@ -12985,7 +12985,7 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="839">
@@ -13015,7 +13015,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="841">
@@ -13075,7 +13075,7 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="845" ht="25.5" customHeight="1">
@@ -13105,7 +13105,7 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="847">
@@ -13150,7 +13150,7 @@
         </is>
       </c>
       <c r="C849" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="850">
@@ -13165,7 +13165,7 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="851">
@@ -13180,7 +13180,7 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="852">
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="853">
@@ -13240,7 +13240,7 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="856" ht="25.5" customHeight="1">
@@ -13270,7 +13270,7 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="858" ht="25.5" customHeight="1">
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="860">
@@ -13330,7 +13330,7 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="862">
@@ -13360,7 +13360,7 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="864">
@@ -13420,7 +13420,7 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="868">
@@ -13435,7 +13435,7 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="869">
@@ -13450,7 +13450,7 @@
         </is>
       </c>
       <c r="C869" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="870">
@@ -13495,7 +13495,7 @@
         </is>
       </c>
       <c r="C872" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="873">
@@ -13525,7 +13525,7 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="875">
@@ -13585,7 +13585,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="879">
@@ -13600,7 +13600,7 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="880">
@@ -13630,7 +13630,7 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="882">
@@ -13660,7 +13660,7 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="884" ht="25.5" customHeight="1">
@@ -13675,7 +13675,7 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="885">
@@ -13690,7 +13690,7 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="886">
@@ -13705,7 +13705,7 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -13720,7 +13720,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="888">
@@ -13735,7 +13735,7 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" ht="25.5" customHeight="1">
@@ -13765,7 +13765,7 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="891">
@@ -13780,7 +13780,7 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="892">
@@ -13795,7 +13795,7 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="893">
@@ -13870,7 +13870,7 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -13885,7 +13885,7 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="899">
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="901">
@@ -13930,7 +13930,7 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="902">
@@ -13945,7 +13945,7 @@
         </is>
       </c>
       <c r="C902" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="903">
@@ -13960,7 +13960,7 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="904">
@@ -13990,7 +13990,7 @@
         </is>
       </c>
       <c r="C905" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -14020,7 +14020,7 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="908">
@@ -14035,7 +14035,7 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="909">
@@ -14050,7 +14050,7 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="910">
@@ -14140,7 +14140,7 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="916">
@@ -14155,7 +14155,7 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="917">
@@ -14185,7 +14185,7 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="919">
@@ -14200,7 +14200,7 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="920">
@@ -14215,7 +14215,7 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -14230,7 +14230,7 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="922">
@@ -14245,7 +14245,7 @@
         </is>
       </c>
       <c r="C922" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="923">
@@ -14260,7 +14260,7 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="924">
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -14335,7 +14335,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="929">
@@ -14380,7 +14380,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="932">
@@ -14410,7 +14410,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="934">
@@ -14440,7 +14440,7 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="936" ht="25.5" customHeight="1">
@@ -14500,7 +14500,7 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="940">
@@ -14530,7 +14530,7 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -14575,7 +14575,7 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="945">
@@ -14590,7 +14590,7 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="946">
@@ -14605,7 +14605,7 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="947" ht="25.5" customHeight="1">
@@ -14620,7 +14620,7 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="948">
@@ -14680,7 +14680,7 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="952">
@@ -14710,7 +14710,7 @@
         </is>
       </c>
       <c r="C953" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="954">
@@ -14725,7 +14725,7 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="955">
@@ -14755,7 +14755,7 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="957">
@@ -14785,7 +14785,7 @@
         </is>
       </c>
       <c r="C958" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="959">
@@ -14800,7 +14800,7 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="960">
@@ -14860,7 +14860,7 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="964">
@@ -14875,7 +14875,7 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="965">
@@ -14890,7 +14890,7 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="966" ht="25.5" customHeight="1">
@@ -14905,7 +14905,7 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="967">
@@ -14920,7 +14920,7 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="968">
@@ -14935,7 +14935,7 @@
         </is>
       </c>
       <c r="C968" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="969">
@@ -14950,7 +14950,7 @@
         </is>
       </c>
       <c r="C969" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="970">
@@ -15010,7 +15010,7 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="974">
@@ -15025,7 +15025,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="975">
@@ -15040,7 +15040,7 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="976">
@@ -15055,7 +15055,7 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="977">
@@ -15070,7 +15070,7 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="978">
@@ -15085,7 +15085,7 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="979">
@@ -15100,7 +15100,7 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="980">
@@ -15115,7 +15115,7 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="981">
@@ -15160,7 +15160,7 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="984">
@@ -15175,7 +15175,7 @@
         </is>
       </c>
       <c r="C984" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="985">
@@ -15190,7 +15190,7 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="986">
@@ -15205,7 +15205,7 @@
         </is>
       </c>
       <c r="C986" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="987">
@@ -15265,7 +15265,7 @@
         </is>
       </c>
       <c r="C990" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="991">
@@ -15280,7 +15280,7 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="992">
@@ -15310,7 +15310,7 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="994">
@@ -15340,7 +15340,7 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="996">
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="C996" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="997">
@@ -15370,7 +15370,7 @@
         </is>
       </c>
       <c r="C997" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="998">
@@ -15385,7 +15385,7 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="999">
@@ -15430,7 +15430,7 @@
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1002">
@@ -15445,7 +15445,7 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1003" ht="25.5" customHeight="1">
@@ -15460,7 +15460,7 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -15475,7 +15475,7 @@
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1005">
@@ -15505,7 +15505,7 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1007">
@@ -15520,7 +15520,7 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1008">
@@ -15550,7 +15550,7 @@
         </is>
       </c>
       <c r="C1009" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1010">
@@ -15565,7 +15565,7 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011">
@@ -15610,7 +15610,7 @@
         </is>
       </c>
       <c r="C1013" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1014">
@@ -15640,7 +15640,7 @@
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1016">
@@ -15655,7 +15655,7 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1017">
@@ -15670,7 +15670,7 @@
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1018">
@@ -15700,7 +15700,7 @@
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1020">
@@ -15730,7 +15730,7 @@
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1022">
@@ -15745,7 +15745,7 @@
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1023">
@@ -15760,7 +15760,7 @@
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1024">
@@ -15790,7 +15790,7 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1026">
@@ -15835,7 +15835,7 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1029">
@@ -15865,7 +15865,7 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1031">
@@ -15880,7 +15880,7 @@
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1032">
@@ -15895,7 +15895,7 @@
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1033">
@@ -15925,7 +15925,7 @@
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -15940,7 +15940,7 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1036">
@@ -15970,7 +15970,7 @@
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1038">
@@ -16030,7 +16030,7 @@
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1042">
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -16120,7 +16120,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1048">
@@ -16135,7 +16135,7 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1049">
@@ -16165,7 +16165,7 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -16195,7 +16195,7 @@
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1053">
@@ -16210,7 +16210,7 @@
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1054">
@@ -16225,7 +16225,7 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1055">
@@ -16255,7 +16255,7 @@
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1057">
@@ -16285,7 +16285,7 @@
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -16300,7 +16300,7 @@
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1060">
@@ -16330,7 +16330,7 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1062">
@@ -16345,7 +16345,7 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1063">
@@ -16360,7 +16360,7 @@
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1064" ht="25.5" customHeight="1">
@@ -16405,7 +16405,7 @@
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067">
@@ -16420,7 +16420,7 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1068">
@@ -16495,7 +16495,7 @@
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1073" ht="25.5" customHeight="1">
@@ -16510,7 +16510,7 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -16525,7 +16525,7 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -16540,7 +16540,7 @@
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1076">
@@ -16555,7 +16555,7 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1077">
@@ -16570,7 +16570,7 @@
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -16585,7 +16585,7 @@
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1079">
@@ -16600,7 +16600,7 @@
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
@@ -16615,7 +16615,7 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1081">
@@ -16645,7 +16645,7 @@
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1083">
@@ -16720,7 +16720,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1088" ht="25.5" customHeight="1">
@@ -16735,7 +16735,7 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1089" ht="25.5" customHeight="1">
@@ -16780,7 +16780,7 @@
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1092">
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1093">
@@ -16810,7 +16810,7 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1094">
@@ -16840,7 +16840,7 @@
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1096" ht="25.5" customHeight="1">
@@ -16855,7 +16855,7 @@
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1097">
@@ -16870,7 +16870,7 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1098">
@@ -16885,7 +16885,7 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1099">
@@ -16915,7 +16915,7 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1101">
@@ -16945,7 +16945,7 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1103">
@@ -16975,7 +16975,7 @@
         </is>
       </c>
       <c r="C1104" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1105">
@@ -17005,7 +17005,7 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1107">
@@ -17050,7 +17050,7 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1110">
@@ -17065,7 +17065,7 @@
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1111">
@@ -17125,7 +17125,7 @@
         </is>
       </c>
       <c r="C1114" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1115">
@@ -17170,7 +17170,7 @@
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1118">
@@ -17185,7 +17185,7 @@
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1119">
@@ -17215,7 +17215,7 @@
         </is>
       </c>
       <c r="C1120" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1121">
@@ -17230,7 +17230,7 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1122">
@@ -17245,7 +17245,7 @@
         </is>
       </c>
       <c r="C1122" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1123">
@@ -17275,7 +17275,7 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1125">
@@ -17290,7 +17290,7 @@
         </is>
       </c>
       <c r="C1125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1126">
@@ -17305,7 +17305,7 @@
         </is>
       </c>
       <c r="C1126" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1127">
@@ -17320,7 +17320,7 @@
         </is>
       </c>
       <c r="C1127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1128">
@@ -17335,7 +17335,7 @@
         </is>
       </c>
       <c r="C1128" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1129">
@@ -17350,7 +17350,7 @@
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1130">
@@ -17410,7 +17410,7 @@
         </is>
       </c>
       <c r="C1133" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1134">
@@ -17455,7 +17455,7 @@
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1137">
@@ -17470,7 +17470,7 @@
         </is>
       </c>
       <c r="C1137" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1138">
@@ -17485,7 +17485,7 @@
         </is>
       </c>
       <c r="C1138" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1139">
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1141">
@@ -17530,7 +17530,7 @@
         </is>
       </c>
       <c r="C1141" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1142">
@@ -17545,7 +17545,7 @@
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1143">
@@ -17560,7 +17560,7 @@
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1144">
@@ -17575,7 +17575,7 @@
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1145">
@@ -17590,7 +17590,7 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1146">
@@ -17605,7 +17605,7 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1147">
@@ -17620,7 +17620,7 @@
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1148">
@@ -17650,7 +17650,7 @@
         </is>
       </c>
       <c r="C1149" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1150">
@@ -17695,7 +17695,7 @@
         </is>
       </c>
       <c r="C1152" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1153">
@@ -17725,7 +17725,7 @@
         </is>
       </c>
       <c r="C1154" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1155">
@@ -17755,7 +17755,7 @@
         </is>
       </c>
       <c r="C1156" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1157">
@@ -17770,7 +17770,7 @@
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1158">
@@ -17785,7 +17785,7 @@
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1159">
@@ -17800,7 +17800,7 @@
         </is>
       </c>
       <c r="C1159" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1160">
@@ -17815,7 +17815,7 @@
         </is>
       </c>
       <c r="C1160" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1161">
@@ -17860,7 +17860,7 @@
         </is>
       </c>
       <c r="C1163" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1164">
@@ -17890,7 +17890,7 @@
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1166">
@@ -17965,7 +17965,7 @@
         </is>
       </c>
       <c r="C1170" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1171">
@@ -17980,7 +17980,7 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1172">
@@ -18010,7 +18010,7 @@
         </is>
       </c>
       <c r="C1173" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1174">
@@ -18025,7 +18025,7 @@
         </is>
       </c>
       <c r="C1174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1175">
@@ -18055,7 +18055,7 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1177">
@@ -18070,7 +18070,7 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1178">
@@ -18085,7 +18085,7 @@
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1179">
@@ -18115,7 +18115,7 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181">
@@ -18160,7 +18160,7 @@
         </is>
       </c>
       <c r="C1183" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1184">
@@ -18190,7 +18190,7 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1186">
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="C1188" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1189">
@@ -18250,7 +18250,7 @@
         </is>
       </c>
       <c r="C1189" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1190" ht="25.5" customHeight="1">
@@ -18265,7 +18265,7 @@
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1191" ht="25.5" customHeight="1">
@@ -18310,7 +18310,7 @@
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1194">
@@ -18355,7 +18355,7 @@
         </is>
       </c>
       <c r="C1196" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
